--- a/biology/Médecine/Kristian_Wickström/Kristian_Wickström.xlsx
+++ b/biology/Médecine/Kristian_Wickström/Kristian_Wickström.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kristian_Wickstr%C3%B6m</t>
+          <t>Kristian_Wickström</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johan Kristian Wickström, né le 25 septembre 1845 à Garpenbergs socken (sv) et mort le 14 mars 1926, est un psychiatre suédois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kristian_Wickstr%C3%B6m</t>
+          <t>Kristian_Wickström</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wickström est devenu un étudiant à l'université d'Uppsala en 1866, medicine kandidat (sv)[Note 1] en 1873 et medicine licentiat (sv)[Note 1] en 1878. Il était médecin assistant à l'hôpital de Stockholm (Konradsberg (en)) 1878-1880 et 1881-1883 à l'hôpital de Göteborg, le médecin en chef par intérim à l'hôpital de Göteborg 1880-1883 et médecin régulier 1883-1915 (comme successeur de Carl Anjou (sv)).
 Wickström est inhumé dans le Galärvarvskyrkogården (en) à Stockholm.
